--- a/rest-client/assets/産業医データ一括取込.xlsx
+++ b/rest-client/assets/産業医データ一括取込.xlsx
@@ -186,7 +186,7 @@
     <t xml:space="preserve">銀行支店名</t>
   </si>
   <si>
-    <t xml:space="preserve">支店コード</t>
+    <t xml:space="preserve">支店名（カナ）</t>
   </si>
   <si>
     <t xml:space="preserve">口座種類</t>
@@ -1284,44 +1284,48 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1405,10 +1409,10 @@
   </sheetPr>
   <dimension ref="A1:AX696"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AJ1" activeCellId="0" sqref="AJ1"/>
-      <selection pane="bottomLeft" activeCell="BB680" activeCellId="0" sqref="BB680"/>
+      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="AD2" activeCellId="0" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1867,165 +1871,165 @@
       <c r="R6" s="9"/>
       <c r="AU6" s="9"/>
       <c r="AV6" s="1"/>
-      <c r="AW6" s="0"/>
-      <c r="AX6" s="0"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R7" s="9"/>
       <c r="AU7" s="9"/>
       <c r="AV7" s="1"/>
-      <c r="AW7" s="0"/>
-      <c r="AX7" s="0"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV8" s="1"/>
-      <c r="AW8" s="0"/>
-      <c r="AX8" s="0"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV9" s="1"/>
-      <c r="AW9" s="0"/>
-      <c r="AX9" s="0"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV10" s="1"/>
-      <c r="AW10" s="0"/>
-      <c r="AX10" s="0"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV11" s="1"/>
-      <c r="AW11" s="0"/>
-      <c r="AX11" s="0"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV12" s="1"/>
-      <c r="AW12" s="0"/>
-      <c r="AX12" s="0"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV13" s="1"/>
-      <c r="AW13" s="0"/>
-      <c r="AX13" s="0"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV14" s="1"/>
-      <c r="AW14" s="0"/>
-      <c r="AX14" s="0"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV15" s="1"/>
-      <c r="AW15" s="0"/>
-      <c r="AX15" s="0"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV16" s="1"/>
-      <c r="AW16" s="0"/>
-      <c r="AX16" s="0"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV17" s="1"/>
-      <c r="AW17" s="0"/>
-      <c r="AX17" s="0"/>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV18" s="1"/>
-      <c r="AW18" s="0"/>
-      <c r="AX18" s="0"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV19" s="1"/>
-      <c r="AW19" s="0"/>
-      <c r="AX19" s="0"/>
+      <c r="AW19" s="10"/>
+      <c r="AX19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV20" s="1"/>
-      <c r="AW20" s="0"/>
-      <c r="AX20" s="0"/>
+      <c r="AW20" s="10"/>
+      <c r="AX20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV21" s="1"/>
-      <c r="AW21" s="0"/>
-      <c r="AX21" s="0"/>
+      <c r="AW21" s="10"/>
+      <c r="AX21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV22" s="1"/>
-      <c r="AW22" s="0"/>
-      <c r="AX22" s="0"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV23" s="1"/>
-      <c r="AW23" s="0"/>
-      <c r="AX23" s="0"/>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV24" s="1"/>
-      <c r="AW24" s="0"/>
-      <c r="AX24" s="0"/>
+      <c r="AW24" s="10"/>
+      <c r="AX24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV25" s="1"/>
-      <c r="AW25" s="0"/>
-      <c r="AX25" s="0"/>
+      <c r="AW25" s="10"/>
+      <c r="AX25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV26" s="1"/>
-      <c r="AW26" s="0"/>
-      <c r="AX26" s="0"/>
+      <c r="AW26" s="10"/>
+      <c r="AX26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV27" s="1"/>
-      <c r="AW27" s="0"/>
-      <c r="AX27" s="0"/>
+      <c r="AW27" s="10"/>
+      <c r="AX27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV28" s="1"/>
-      <c r="AW28" s="0"/>
-      <c r="AX28" s="0"/>
+      <c r="AW28" s="10"/>
+      <c r="AX28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV29" s="1"/>
-      <c r="AW29" s="0"/>
-      <c r="AX29" s="0"/>
+      <c r="AW29" s="10"/>
+      <c r="AX29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV30" s="1"/>
-      <c r="AW30" s="0"/>
-      <c r="AX30" s="0"/>
+      <c r="AW30" s="10"/>
+      <c r="AX30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV31" s="1"/>
-      <c r="AW31" s="0"/>
-      <c r="AX31" s="0"/>
+      <c r="AW31" s="10"/>
+      <c r="AX31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV32" s="1"/>
-      <c r="AW32" s="0"/>
-      <c r="AX32" s="0"/>
+      <c r="AW32" s="10"/>
+      <c r="AX32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV33" s="1"/>
-      <c r="AW33" s="0"/>
-      <c r="AX33" s="0"/>
+      <c r="AW33" s="10"/>
+      <c r="AX33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV34" s="1"/>
-      <c r="AW34" s="0"/>
-      <c r="AX34" s="0"/>
+      <c r="AW34" s="10"/>
+      <c r="AX34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV35" s="1"/>
-      <c r="AW35" s="0"/>
-      <c r="AX35" s="0"/>
+      <c r="AW35" s="10"/>
+      <c r="AX35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV36" s="1"/>
-      <c r="AW36" s="0"/>
-      <c r="AX36" s="0"/>
+      <c r="AW36" s="10"/>
+      <c r="AX36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV37" s="1"/>
-      <c r="AW37" s="0"/>
-      <c r="AX37" s="0"/>
+      <c r="AW37" s="10"/>
+      <c r="AX37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AV38" s="1"/>
